--- a/biology/Médecine/Agnès_Bernet/Agnès_Bernet.xlsx
+++ b/biology/Médecine/Agnès_Bernet/Agnès_Bernet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Bernet</t>
+          <t>Agnès_Bernet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agnès Bernet, née en 1968, est une biologiste cellulaire française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Bernet</t>
+          <t>Agnès_Bernet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle enseigne à l'Université Claude-Bernard-Lyon-I et elle est membre du laboratoire récepteurs à dépendance, cancers et développement dirigé par Patrick Mehlen au sein du Centre de recherche en cancérologie de Lyon[1]. Elle est également directrice du conseil scientifique et cofondatrice de la société Netris Pharma[2]. Elle est nommée membre junior de l'Institut universitaire de France en 2008, pour une durée de cinq ans[3]. En 2015, elle a reçu le prix Irène-Joliot-Curie dans la catégorie Parcours Femme et entreprise pour l'ensemble de son activité à l’enseignement et à la recherche contre le cancer[4],[5]. Ses travaux portent sur une cible thérapeutique nouvelle que sont les récepteurs à dépendance. Il s’agit de couples de récepteurs/ligands qui sont dérégulés dans les cancers. La première molécule thérapeutique prototype est un anticorps contre le ligand nétrine 1, surexprimé dans de nombreux types de cancers. Cet anticorps induit la mort des cellules tumorales[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle enseigne à l'Université Claude-Bernard-Lyon-I et elle est membre du laboratoire récepteurs à dépendance, cancers et développement dirigé par Patrick Mehlen au sein du Centre de recherche en cancérologie de Lyon. Elle est également directrice du conseil scientifique et cofondatrice de la société Netris Pharma. Elle est nommée membre junior de l'Institut universitaire de France en 2008, pour une durée de cinq ans. En 2015, elle a reçu le prix Irène-Joliot-Curie dans la catégorie Parcours Femme et entreprise pour l'ensemble de son activité à l’enseignement et à la recherche contre le cancer,. Ses travaux portent sur une cible thérapeutique nouvelle que sont les récepteurs à dépendance. Il s’agit de couples de récepteurs/ligands qui sont dérégulés dans les cancers. La première molécule thérapeutique prototype est un anticorps contre le ligand nétrine 1, surexprimé dans de nombreux types de cancers. Cet anticorps induit la mort des cellules tumorales.
 </t>
         </is>
       </c>
